--- a/medicine/Enfance/Sophie_Littlefield/Sophie_Littlefield.xlsx
+++ b/medicine/Enfance/Sophie_Littlefield/Sophie_Littlefield.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sophie Littlefield, née dans le Missouri aux États-Unis, est une femme de lettres américaine, auteure de roman policier et de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2009, elle publie son premier roman, A Bad Day for Sorry et est lauréate du prix Anthony 2010 du meilleur premier roman.
 </t>
@@ -544,26 +558,186 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Stella Hardesty
-A Bad Day for Sorry (2009)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Stella Hardesty</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A Bad Day for Sorry (2009)
 A Bad Day for Pretty (2010)
 A Bad Day for Scandal (2011)
 A Bad Day for Mercy (2012)
-A Bad Day for Romance (2013)
-Série Banished
-Banished (2010)
-Unforsaken (2011)
-Série Aftertime
-Aftertime (2011)
+A Bad Day for Romance (2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sophie_Littlefield</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Littlefield</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Banished</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Banished (2010)
+Unforsaken (2011)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sophie_Littlefield</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Littlefield</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Aftertime</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Aftertime (2011)
 Rebirth (2011)
 Horizon (2012)
-Survivors (2011)
-Série Joe Bashir
-Blood Bond (2012)
-Shattered Bond (2013)
-Autres romans
-Hanging by a Thread (2012)
+Survivors (2011)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sophie_Littlefield</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Littlefield</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Joe Bashir</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Blood Bond (2012)
+Shattered Bond (2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sophie_Littlefield</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Littlefield</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hanging by a Thread (2012)
 Garden of Stones (2013)
 House of Glass (2014)
 The Missing Place (2014)
@@ -573,36 +747,75 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Sophie_Littlefield</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sophie_Littlefield</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Prix Anthony 2010 du meilleur premier roman pour A Bad Day for Sorry[1]
-Nomination
-Prix Edgar-Allan-Poe 2010 du meilleur premier roman pour A Bad Day for Sorry[2]</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Prix Anthony 2010 du meilleur premier roman pour A Bad Day for Sorry</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sophie_Littlefield</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Littlefield</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nomination</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Prix Edgar-Allan-Poe 2010 du meilleur premier roman pour A Bad Day for Sorry</t>
         </is>
       </c>
     </row>
